--- a/Candidacy-Streamlit-Repo/performance-wrs.xlsx
+++ b/Candidacy-Streamlit-Repo/performance-wrs.xlsx
@@ -450,28 +450,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.8657377049180328</v>
+        <v>0.744672131147541</v>
       </c>
       <c r="D2">
-        <v>0.8178555125413698</v>
+        <v>0.6926273982439175</v>
       </c>
       <c r="E2">
-        <v>0.9102738744293556</v>
+        <v>0.7966029111793045</v>
       </c>
       <c r="F2">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="G2">
-        <v>0.8114754098360656</v>
+        <v>0.639344262295082</v>
       </c>
       <c r="H2">
-        <v>0.9230769230769231</v>
+        <v>0.8528428093645485</v>
       </c>
       <c r="I2">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="J2">
-        <v>0.9215358931552587</v>
+        <v>0.8514190317195326</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -482,28 +482,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.926448087431694</v>
+        <v>0.7650273224043715</v>
       </c>
       <c r="D3">
-        <v>0.888327258366973</v>
+        <v>0.7132603027129654</v>
       </c>
       <c r="E3">
-        <v>0.961061740372242</v>
+        <v>0.8171273354922864</v>
       </c>
       <c r="F3">
-        <v>0.9266666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G3">
-        <v>0.9262295081967213</v>
+        <v>0.6967213114754098</v>
       </c>
       <c r="H3">
-        <v>0.9686411149825784</v>
+        <v>0.8710801393728222</v>
       </c>
       <c r="I3">
-        <v>0.9266666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="J3">
-        <v>0.9471890971039181</v>
+        <v>0.8517887563884157</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -514,28 +514,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.7357103825136613</v>
+        <v>0.7674590163934426</v>
       </c>
       <c r="D4">
-        <v>0.6840051283211146</v>
+        <v>0.716234660817073</v>
       </c>
       <c r="E4">
-        <v>0.7868211017786405</v>
+        <v>0.8186229259398896</v>
       </c>
       <c r="F4">
-        <v>0.8566666666666667</v>
+        <v>0.83</v>
       </c>
       <c r="G4">
-        <v>0.6147540983606558</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="H4">
-        <v>0.8453947368421053</v>
+        <v>0.8736842105263158</v>
       </c>
       <c r="I4">
-        <v>0.8566666666666667</v>
+        <v>0.83</v>
       </c>
       <c r="J4">
-        <v>0.8509933774834437</v>
+        <v>0.8512820512820513</v>
       </c>
     </row>
   </sheetData>
